--- a/2.5P_MY20_3F1301VR_CarPlay_Report_NS.xlsx
+++ b/2.5P_MY20_3F1301VR_CarPlay_Report_NS.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1910263-AB2A-4AAC-BA07-72F05365AC24}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1F945D-3CF4-4991-9059-AD7F0D363C89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="495" windowWidth="12360" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14100" yWindow="1980" windowWidth="12360" windowHeight="11385" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.Cover_Changelog" sheetId="3" r:id="rId1"/>
     <sheet name="2.Issue_List" sheetId="4" r:id="rId2"/>
     <sheet name="TestCase" sheetId="1" r:id="rId3"/>
-    <sheet name="Test Summary20190807_150430" sheetId="16" r:id="rId4"/>
+    <sheet name="Test Summary20190807_224553" sheetId="21" r:id="rId4"/>
     <sheet name="cal相关" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -571,7 +571,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;\&quot;#,##0;[Red]&quot;\&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1035,24 +1035,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1076,6 +1058,24 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1500,7 +1500,7 @@
       <selection activeCell="C14" sqref="C14:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="14"/>
     <col min="2" max="2" width="17.5703125" style="14" customWidth="1"/>
@@ -1953,11 +1953,11 @@
     <col min="16136" max="16384" width="9.28515625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="7" customFormat="1">
       <c r="A1" s="6"/>
     </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="57"/>
+    <row r="2" spans="1:7" s="7" customFormat="1" ht="45" customHeight="1">
+      <c r="B2" s="51"/>
       <c r="C2" s="29" t="s">
         <v>30</v>
       </c>
@@ -1974,17 +1974,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="57"/>
-      <c r="C3" s="58" t="s">
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="45" customHeight="1">
+      <c r="B3" s="51"/>
+      <c r="C3" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
-    </row>
-    <row r="4" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
+    </row>
+    <row r="4" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="32"/>
       <c r="C4" s="33" t="s">
         <v>33</v>
@@ -2002,7 +2002,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="35" t="s">
         <v>38</v>
@@ -2023,7 +2023,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="12"/>
       <c r="B6" s="35" t="s">
         <v>40</v>
@@ -2044,7 +2044,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="35" t="s">
         <v>42</v>
@@ -2055,7 +2055,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="35" t="s">
         <v>42</v>
@@ -2066,185 +2066,185 @@
       <c r="F8" s="11"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-    </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+    </row>
+    <row r="10" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
-    </row>
-    <row r="11" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
+    </row>
+    <row r="11" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53"/>
-    </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="61"/>
+    </row>
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="53"/>
-    </row>
-    <row r="13" spans="1:7" s="39" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
+    </row>
+    <row r="13" spans="1:7" s="39" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="38"/>
       <c r="B13" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="53"/>
-    </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+    </row>
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="51">
+      <c r="C14" s="59">
         <v>26316536</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="53"/>
-    </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="61"/>
+    </row>
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="53"/>
-    </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="61"/>
+    </row>
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="8"/>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="61"/>
+    </row>
+    <row r="17" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="8"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="51" t="s">
+      <c r="B17" s="63"/>
+      <c r="C17" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53"/>
-    </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="61"/>
+    </row>
+    <row r="18" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="8"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="51" t="s">
+      <c r="B18" s="63"/>
+      <c r="C18" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="53"/>
-    </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61"/>
+    </row>
+    <row r="19" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="8"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="51" t="s">
+      <c r="B19" s="63"/>
+      <c r="C19" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="53"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="55"/>
-      <c r="C20" s="51" t="s">
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="61"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20" s="63"/>
+      <c r="C20" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="53"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="56"/>
-      <c r="C21" s="51" t="s">
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="61"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" s="64"/>
+      <c r="C21" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="61"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="15"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7">
       <c r="A31" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="B16:B21"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2261,7 +2261,7 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="123.28515625" customWidth="1"/>
@@ -2585,16 +2585,16 @@
     <col min="16133" max="16133" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:5" ht="24.75">
+      <c r="A1" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-    </row>
-    <row r="2" spans="1:5" s="42" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+    </row>
+    <row r="2" spans="1:5" s="42" customFormat="1" ht="21">
       <c r="A2" s="41" t="s">
         <v>46</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="16.5">
       <c r="A3" s="25">
         <v>1</v>
       </c>
@@ -2620,124 +2620,124 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="54" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" ht="14.25">
       <c r="B54" s="43"/>
     </row>
-    <row r="55" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" ht="14.25">
       <c r="B55" s="43"/>
     </row>
-    <row r="56" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" ht="14.25">
       <c r="B56" s="43"/>
     </row>
-    <row r="57" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" ht="14.25">
       <c r="B57" s="43"/>
     </row>
-    <row r="58" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" ht="14.25">
       <c r="B58" s="43"/>
     </row>
-    <row r="59" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" ht="14.25">
       <c r="B59" s="43"/>
     </row>
-    <row r="60" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" ht="14.25">
       <c r="B60" s="43"/>
     </row>
-    <row r="61" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" ht="14.25">
       <c r="B61" s="43"/>
     </row>
-    <row r="62" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" ht="14.25">
       <c r="B62" s="43"/>
     </row>
-    <row r="63" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" ht="14.25">
       <c r="B63" s="43"/>
     </row>
-    <row r="64" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" ht="14.25">
       <c r="B64" s="43"/>
     </row>
-    <row r="65" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" ht="14.25">
       <c r="B65" s="43"/>
     </row>
-    <row r="66" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" ht="14.25">
       <c r="B66" s="43"/>
     </row>
-    <row r="67" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" ht="14.25">
       <c r="B67" s="43"/>
     </row>
-    <row r="68" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" ht="14.25">
       <c r="B68" s="43"/>
     </row>
-    <row r="69" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" ht="14.25">
       <c r="B69" s="43"/>
     </row>
-    <row r="70" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" ht="14.25">
       <c r="B70" s="43"/>
     </row>
-    <row r="71" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" ht="14.25">
       <c r="B71" s="43"/>
     </row>
-    <row r="72" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" ht="14.25">
       <c r="B72" s="43"/>
     </row>
-    <row r="73" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" ht="14.25">
       <c r="B73" s="43"/>
     </row>
-    <row r="74" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" ht="14.25">
       <c r="B74" s="43"/>
     </row>
-    <row r="75" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" ht="14.25">
       <c r="B75" s="43"/>
     </row>
-    <row r="76" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" ht="14.25">
       <c r="B76" s="43"/>
     </row>
-    <row r="77" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" ht="14.25">
       <c r="B77" s="43"/>
     </row>
-    <row r="78" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" ht="14.25">
       <c r="B78" s="43"/>
     </row>
-    <row r="79" spans="2:2" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" ht="14.25">
       <c r="B79" s="44"/>
     </row>
-    <row r="80" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" ht="14.25">
       <c r="B80" s="43"/>
     </row>
-    <row r="81" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2" ht="14.25">
       <c r="B81" s="43"/>
     </row>
-    <row r="82" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2" ht="14.25">
       <c r="B82" s="43"/>
     </row>
-    <row r="83" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:2" ht="14.25">
       <c r="B83" s="43"/>
     </row>
-    <row r="84" spans="2:2" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" ht="14.25">
       <c r="B84" s="44"/>
     </row>
-    <row r="85" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:2" ht="14.25">
       <c r="B85" s="43"/>
     </row>
-    <row r="86" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:2" ht="14.25">
       <c r="B86" s="43"/>
     </row>
-    <row r="87" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:2" ht="14.25">
       <c r="B87" s="43"/>
     </row>
-    <row r="88" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:2" ht="14.25">
       <c r="B88" s="43"/>
     </row>
-    <row r="89" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:2" ht="14.25">
       <c r="B89" s="43"/>
     </row>
-    <row r="90" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:2" ht="14.25">
       <c r="B90" s="43"/>
     </row>
-    <row r="91" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:2" ht="14.25">
       <c r="B91" s="43"/>
     </row>
-    <row r="92" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:2" ht="14.25">
       <c r="B92" s="43"/>
     </row>
-    <row r="93" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:2" ht="14.25">
       <c r="B93" s="43"/>
     </row>
   </sheetData>
@@ -2756,11 +2756,11 @@
   </sheetPr>
   <dimension ref="A1:WXO509"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="27" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="27" customWidth="1"/>
@@ -2781,7 +2781,7 @@
     <col min="24" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:736 10656:16187" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:736 10656:16187" s="24" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
@@ -9097,7 +9097,7 @@
       <c r="WXN1" s="27"/>
       <c r="WXO1" s="27"/>
     </row>
-    <row r="2" spans="1:736 10656:16187" ht="99.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:736 10656:16187" ht="99.75">
       <c r="A2" s="5" t="s">
         <v>74</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:736 10656:16187" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:736 10656:16187" ht="42.75" outlineLevel="1">
       <c r="A3" s="1"/>
       <c r="B3" s="50"/>
       <c r="C3" s="50">
@@ -9197,7 +9197,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:736 10656:16187" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:736 10656:16187" ht="71.25" outlineLevel="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -9232,7 +9232,7 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:736 10656:16187" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:736 10656:16187" outlineLevel="1">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -9257,7 +9257,7 @@
       <c r="V5" s="28"/>
       <c r="W5" s="28"/>
     </row>
-    <row r="6" spans="1:736 10656:16187" ht="71.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:736 10656:16187" ht="71.25">
       <c r="A6" s="5" t="s">
         <v>81</v>
       </c>
@@ -9308,7 +9308,7 @@
       <c r="V6" s="48"/>
       <c r="W6" s="48"/>
     </row>
-    <row r="7" spans="1:736 10656:16187" ht="57" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:736 10656:16187" ht="57" outlineLevel="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -9341,7 +9341,7 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:736 10656:16187" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:736 10656:16187" ht="71.25" outlineLevel="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -9376,7 +9376,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:736 10656:16187" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:736 10656:16187" outlineLevel="1">
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
@@ -9401,7 +9401,7 @@
       <c r="V9" s="28"/>
       <c r="W9" s="28"/>
     </row>
-    <row r="10" spans="1:736 10656:16187" ht="71.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:736 10656:16187" ht="71.25">
       <c r="A10" s="5" t="s">
         <v>84</v>
       </c>
@@ -9452,7 +9452,7 @@
       <c r="V10" s="48"/>
       <c r="W10" s="48"/>
     </row>
-    <row r="11" spans="1:736 10656:16187" ht="57" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:736 10656:16187" ht="57" outlineLevel="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -9485,7 +9485,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:736 10656:16187" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:736 10656:16187" ht="71.25" outlineLevel="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -9520,7 +9520,7 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:736 10656:16187" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:736 10656:16187" outlineLevel="1">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
@@ -9545,7 +9545,7 @@
       <c r="V13" s="28"/>
       <c r="W13" s="28"/>
     </row>
-    <row r="14" spans="1:736 10656:16187" ht="99.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:736 10656:16187" ht="99.75">
       <c r="A14" s="5" t="s">
         <v>87</v>
       </c>
@@ -9596,7 +9596,7 @@
       <c r="V14" s="48"/>
       <c r="W14" s="48"/>
     </row>
-    <row r="15" spans="1:736 10656:16187" ht="57" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:736 10656:16187" ht="57" outlineLevel="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -9629,7 +9629,7 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:736 10656:16187" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:736 10656:16187" ht="71.25" outlineLevel="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -9664,7 +9664,7 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="1:23" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="28.5" outlineLevel="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -9697,7 +9697,7 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" outlineLevel="1">
       <c r="A18" s="28"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
@@ -9722,7 +9722,7 @@
       <c r="V18" s="28"/>
       <c r="W18" s="28"/>
     </row>
-    <row r="19" spans="1:23" ht="99.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="99.75">
       <c r="A19" s="5" t="s">
         <v>90</v>
       </c>
@@ -9773,7 +9773,7 @@
       <c r="V19" s="48"/>
       <c r="W19" s="48"/>
     </row>
-    <row r="20" spans="1:23" ht="57" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="57" outlineLevel="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -9806,7 +9806,7 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="1:23" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="71.25" outlineLevel="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -9841,7 +9841,7 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" outlineLevel="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -9874,7 +9874,7 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" outlineLevel="1">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
@@ -9899,7 +9899,7 @@
       <c r="V23" s="28"/>
       <c r="W23" s="28"/>
     </row>
-    <row r="24" spans="1:23" ht="128.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="128.25">
       <c r="A24" s="5" t="s">
         <v>92</v>
       </c>
@@ -9950,7 +9950,7 @@
       <c r="V24" s="48"/>
       <c r="W24" s="48"/>
     </row>
-    <row r="25" spans="1:23" ht="57" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="57" outlineLevel="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -9983,7 +9983,7 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:23" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="71.25" outlineLevel="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -10018,7 +10018,7 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:23" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="42.75" outlineLevel="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -10051,7 +10051,7 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:23" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="28.5" outlineLevel="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -10084,7 +10084,7 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" outlineLevel="1">
       <c r="A29" s="28"/>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
@@ -10109,7 +10109,7 @@
       <c r="V29" s="28"/>
       <c r="W29" s="28"/>
     </row>
-    <row r="30" spans="1:23" ht="128.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="128.25">
       <c r="A30" s="5" t="s">
         <v>94</v>
       </c>
@@ -10160,7 +10160,7 @@
       <c r="V30" s="48"/>
       <c r="W30" s="48"/>
     </row>
-    <row r="31" spans="1:23" ht="57" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="57" outlineLevel="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -10193,7 +10193,7 @@
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" spans="1:23" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="71.25" outlineLevel="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -10228,7 +10228,7 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="1:23" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="28.5" outlineLevel="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -10261,7 +10261,7 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" outlineLevel="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -10294,7 +10294,7 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" outlineLevel="1">
       <c r="A35" s="28"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
@@ -10319,7 +10319,7 @@
       <c r="V35" s="28"/>
       <c r="W35" s="28"/>
     </row>
-    <row r="36" spans="1:23" ht="128.25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="128.25">
       <c r="A36" s="5" t="s">
         <v>97</v>
       </c>
@@ -10370,7 +10370,7 @@
       <c r="V36" s="48"/>
       <c r="W36" s="48"/>
     </row>
-    <row r="37" spans="1:23" ht="57" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="57" outlineLevel="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -10403,7 +10403,7 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:23" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="71.25" outlineLevel="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -10438,7 +10438,7 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:23" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="28.5" outlineLevel="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -10471,7 +10471,7 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" outlineLevel="1">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
@@ -10496,7 +10496,7 @@
       <c r="V40" s="28"/>
       <c r="W40" s="28"/>
     </row>
-    <row r="41" spans="1:23" ht="128.25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="128.25">
       <c r="A41" s="5" t="s">
         <v>99</v>
       </c>
@@ -10547,7 +10547,7 @@
       <c r="V41" s="48"/>
       <c r="W41" s="48"/>
     </row>
-    <row r="42" spans="1:23" ht="57" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="57" outlineLevel="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -10580,7 +10580,7 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="71.25" outlineLevel="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -10615,7 +10615,7 @@
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" outlineLevel="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -10648,7 +10648,7 @@
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" outlineLevel="1">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
@@ -10673,1473 +10673,1473 @@
       <c r="V45" s="28"/>
       <c r="W45" s="28"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23">
       <c r="V46" s="27"/>
       <c r="W46" s="27"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23">
       <c r="V47" s="27"/>
       <c r="W47" s="27"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23">
       <c r="V48" s="27"/>
       <c r="W48" s="27"/>
     </row>
-    <row r="49" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="22:23">
       <c r="V49" s="27"/>
       <c r="W49" s="27"/>
     </row>
-    <row r="50" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="22:23">
       <c r="V50" s="27"/>
       <c r="W50" s="27"/>
     </row>
-    <row r="51" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="22:23">
       <c r="V51" s="27"/>
       <c r="W51" s="27"/>
     </row>
-    <row r="52" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="22:23">
       <c r="V52" s="27"/>
       <c r="W52" s="27"/>
     </row>
-    <row r="53" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="22:23">
       <c r="V53" s="27"/>
       <c r="W53" s="27"/>
     </row>
-    <row r="54" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="22:23">
       <c r="V54" s="27"/>
       <c r="W54" s="27"/>
     </row>
-    <row r="55" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="22:23">
       <c r="V55" s="27"/>
       <c r="W55" s="27"/>
     </row>
-    <row r="56" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="22:23">
       <c r="V56" s="27"/>
       <c r="W56" s="27"/>
     </row>
-    <row r="57" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="22:23">
       <c r="V57" s="27"/>
       <c r="W57" s="27"/>
     </row>
-    <row r="58" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="22:23">
       <c r="V58" s="27"/>
       <c r="W58" s="27"/>
     </row>
-    <row r="59" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="22:23">
       <c r="V59" s="27"/>
       <c r="W59" s="27"/>
     </row>
-    <row r="60" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="22:23">
       <c r="V60" s="27"/>
       <c r="W60" s="27"/>
     </row>
-    <row r="61" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="22:23">
       <c r="V61" s="27"/>
       <c r="W61" s="27"/>
     </row>
-    <row r="62" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="22:23">
       <c r="V62" s="27"/>
       <c r="W62" s="27"/>
     </row>
-    <row r="63" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="22:23">
       <c r="V63" s="27"/>
       <c r="W63" s="27"/>
     </row>
-    <row r="64" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="22:23">
       <c r="V64" s="27"/>
       <c r="W64" s="27"/>
     </row>
-    <row r="65" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="22:23">
       <c r="V65" s="27"/>
       <c r="W65" s="27"/>
     </row>
-    <row r="66" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="22:23">
       <c r="V66" s="27"/>
       <c r="W66" s="27"/>
     </row>
-    <row r="67" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="22:23">
       <c r="V67" s="27"/>
       <c r="W67" s="27"/>
     </row>
-    <row r="68" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="22:23">
       <c r="V68" s="27"/>
       <c r="W68" s="27"/>
     </row>
-    <row r="69" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="22:23">
       <c r="V69" s="27"/>
       <c r="W69" s="27"/>
     </row>
-    <row r="70" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="22:23">
       <c r="V70" s="27"/>
       <c r="W70" s="27"/>
     </row>
-    <row r="71" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="22:23">
       <c r="V71" s="27"/>
       <c r="W71" s="27"/>
     </row>
-    <row r="72" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="22:23">
       <c r="V72" s="27"/>
       <c r="W72" s="27"/>
     </row>
-    <row r="73" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="22:23">
       <c r="V73" s="27"/>
       <c r="W73" s="27"/>
     </row>
-    <row r="74" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="22:23">
       <c r="V74" s="27"/>
       <c r="W74" s="27"/>
     </row>
-    <row r="75" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="22:23">
       <c r="V75" s="27"/>
       <c r="W75" s="27"/>
     </row>
-    <row r="76" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="22:23">
       <c r="V76" s="27"/>
       <c r="W76" s="27"/>
     </row>
-    <row r="77" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="22:23">
       <c r="V77" s="27"/>
       <c r="W77" s="27"/>
     </row>
-    <row r="78" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="78" spans="22:23">
       <c r="V78" s="27"/>
       <c r="W78" s="27"/>
     </row>
-    <row r="79" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="79" spans="22:23">
       <c r="V79" s="27"/>
       <c r="W79" s="27"/>
     </row>
-    <row r="80" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="80" spans="22:23">
       <c r="V80" s="27"/>
       <c r="W80" s="27"/>
     </row>
-    <row r="81" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="22:23">
       <c r="V81" s="27"/>
       <c r="W81" s="27"/>
     </row>
-    <row r="82" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="22:23">
       <c r="V82" s="27"/>
       <c r="W82" s="27"/>
     </row>
-    <row r="83" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="22:23">
       <c r="V83" s="27"/>
       <c r="W83" s="27"/>
     </row>
-    <row r="84" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="84" spans="22:23">
       <c r="V84" s="27"/>
       <c r="W84" s="27"/>
     </row>
-    <row r="85" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="85" spans="22:23">
       <c r="V85" s="27"/>
       <c r="W85" s="27"/>
     </row>
-    <row r="86" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="22:23">
       <c r="V86" s="27"/>
       <c r="W86" s="27"/>
     </row>
-    <row r="87" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="22:23">
       <c r="V87" s="27"/>
       <c r="W87" s="27"/>
     </row>
-    <row r="88" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="22:23">
       <c r="V88" s="27"/>
       <c r="W88" s="27"/>
     </row>
-    <row r="89" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="22:23">
       <c r="V89" s="27"/>
       <c r="W89" s="27"/>
     </row>
-    <row r="90" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="90" spans="22:23">
       <c r="V90" s="27"/>
       <c r="W90" s="27"/>
     </row>
-    <row r="91" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="91" spans="22:23">
       <c r="V91" s="27"/>
       <c r="W91" s="27"/>
     </row>
-    <row r="92" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="92" spans="22:23">
       <c r="V92" s="27"/>
       <c r="W92" s="27"/>
     </row>
-    <row r="93" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="93" spans="22:23">
       <c r="V93" s="27"/>
       <c r="W93" s="27"/>
     </row>
-    <row r="94" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="94" spans="22:23">
       <c r="V94" s="27"/>
       <c r="W94" s="27"/>
     </row>
-    <row r="95" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="95" spans="22:23">
       <c r="V95" s="27"/>
       <c r="W95" s="27"/>
     </row>
-    <row r="96" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="96" spans="22:23">
       <c r="V96" s="27"/>
       <c r="W96" s="27"/>
     </row>
-    <row r="97" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="97" spans="22:23">
       <c r="V97" s="27"/>
       <c r="W97" s="27"/>
     </row>
-    <row r="98" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="98" spans="22:23">
       <c r="V98" s="27"/>
       <c r="W98" s="27"/>
     </row>
-    <row r="99" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="99" spans="22:23">
       <c r="V99" s="27"/>
       <c r="W99" s="27"/>
     </row>
-    <row r="100" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="100" spans="22:23">
       <c r="V100" s="27"/>
       <c r="W100" s="27"/>
     </row>
-    <row r="101" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="101" spans="22:23">
       <c r="V101" s="27"/>
       <c r="W101" s="27"/>
     </row>
-    <row r="102" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="102" spans="22:23">
       <c r="V102" s="27"/>
       <c r="W102" s="27"/>
     </row>
-    <row r="103" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="103" spans="22:23">
       <c r="V103" s="27"/>
       <c r="W103" s="27"/>
     </row>
-    <row r="104" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="104" spans="22:23">
       <c r="V104" s="27"/>
       <c r="W104" s="27"/>
     </row>
-    <row r="105" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="105" spans="22:23">
       <c r="V105" s="27"/>
       <c r="W105" s="27"/>
     </row>
-    <row r="106" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="106" spans="22:23">
       <c r="V106" s="27"/>
       <c r="W106" s="27"/>
     </row>
-    <row r="107" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="107" spans="22:23">
       <c r="V107" s="27"/>
       <c r="W107" s="27"/>
     </row>
-    <row r="108" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="108" spans="22:23">
       <c r="V108" s="27"/>
       <c r="W108" s="27"/>
     </row>
-    <row r="109" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="109" spans="22:23">
       <c r="V109" s="27"/>
       <c r="W109" s="27"/>
     </row>
-    <row r="110" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="110" spans="22:23">
       <c r="V110" s="27"/>
       <c r="W110" s="27"/>
     </row>
-    <row r="111" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="111" spans="22:23">
       <c r="V111" s="27"/>
       <c r="W111" s="27"/>
     </row>
-    <row r="112" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="112" spans="22:23">
       <c r="V112" s="27"/>
       <c r="W112" s="27"/>
     </row>
-    <row r="113" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="113" spans="22:23">
       <c r="V113" s="27"/>
       <c r="W113" s="27"/>
     </row>
-    <row r="114" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="114" spans="22:23">
       <c r="V114" s="27"/>
       <c r="W114" s="27"/>
     </row>
-    <row r="115" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="115" spans="22:23">
       <c r="V115" s="27"/>
       <c r="W115" s="27"/>
     </row>
-    <row r="116" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="116" spans="22:23">
       <c r="V116" s="27"/>
       <c r="W116" s="27"/>
     </row>
-    <row r="117" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="117" spans="22:23">
       <c r="V117" s="27"/>
       <c r="W117" s="27"/>
     </row>
-    <row r="118" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="118" spans="22:23">
       <c r="V118" s="27"/>
       <c r="W118" s="27"/>
     </row>
-    <row r="119" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="119" spans="22:23">
       <c r="V119" s="27"/>
       <c r="W119" s="27"/>
     </row>
-    <row r="120" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="120" spans="22:23">
       <c r="V120" s="27"/>
       <c r="W120" s="27"/>
     </row>
-    <row r="121" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="121" spans="22:23">
       <c r="V121" s="27"/>
       <c r="W121" s="27"/>
     </row>
-    <row r="122" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="122" spans="22:23">
       <c r="V122" s="27"/>
       <c r="W122" s="27"/>
     </row>
-    <row r="123" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="123" spans="22:23">
       <c r="V123" s="27"/>
       <c r="W123" s="27"/>
     </row>
-    <row r="124" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="124" spans="22:23">
       <c r="V124" s="27"/>
       <c r="W124" s="27"/>
     </row>
-    <row r="125" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="125" spans="22:23">
       <c r="V125" s="27"/>
       <c r="W125" s="27"/>
     </row>
-    <row r="126" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="126" spans="22:23">
       <c r="V126" s="27"/>
       <c r="W126" s="27"/>
     </row>
-    <row r="127" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="127" spans="22:23">
       <c r="V127" s="27"/>
       <c r="W127" s="27"/>
     </row>
-    <row r="128" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="128" spans="22:23">
       <c r="V128" s="27"/>
       <c r="W128" s="27"/>
     </row>
-    <row r="129" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="129" spans="22:23">
       <c r="V129" s="27"/>
       <c r="W129" s="27"/>
     </row>
-    <row r="130" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="130" spans="22:23">
       <c r="V130" s="27"/>
       <c r="W130" s="27"/>
     </row>
-    <row r="131" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="131" spans="22:23">
       <c r="V131" s="27"/>
       <c r="W131" s="27"/>
     </row>
-    <row r="132" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="132" spans="22:23">
       <c r="V132" s="27"/>
       <c r="W132" s="27"/>
     </row>
-    <row r="133" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="133" spans="22:23">
       <c r="V133" s="27"/>
       <c r="W133" s="27"/>
     </row>
-    <row r="134" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="134" spans="22:23">
       <c r="V134" s="27"/>
       <c r="W134" s="27"/>
     </row>
-    <row r="135" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="135" spans="22:23">
       <c r="V135" s="27"/>
       <c r="W135" s="27"/>
     </row>
-    <row r="136" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="136" spans="22:23">
       <c r="V136" s="27"/>
       <c r="W136" s="27"/>
     </row>
-    <row r="137" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="137" spans="22:23">
       <c r="V137" s="27"/>
       <c r="W137" s="27"/>
     </row>
-    <row r="138" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="138" spans="22:23">
       <c r="V138" s="27"/>
       <c r="W138" s="27"/>
     </row>
-    <row r="139" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="139" spans="22:23">
       <c r="V139" s="27"/>
       <c r="W139" s="27"/>
     </row>
-    <row r="140" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="140" spans="22:23">
       <c r="V140" s="27"/>
       <c r="W140" s="27"/>
     </row>
-    <row r="141" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="141" spans="22:23">
       <c r="V141" s="27"/>
       <c r="W141" s="27"/>
     </row>
-    <row r="142" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="142" spans="22:23">
       <c r="V142" s="27"/>
       <c r="W142" s="27"/>
     </row>
-    <row r="143" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="143" spans="22:23">
       <c r="V143" s="27"/>
       <c r="W143" s="27"/>
     </row>
-    <row r="144" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="144" spans="22:23">
       <c r="V144" s="27"/>
       <c r="W144" s="27"/>
     </row>
-    <row r="145" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="145" spans="22:23">
       <c r="V145" s="27"/>
       <c r="W145" s="27"/>
     </row>
-    <row r="146" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="146" spans="22:23">
       <c r="V146" s="27"/>
       <c r="W146" s="27"/>
     </row>
-    <row r="147" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="147" spans="22:23">
       <c r="V147" s="27"/>
       <c r="W147" s="27"/>
     </row>
-    <row r="148" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="148" spans="22:23">
       <c r="V148" s="27"/>
       <c r="W148" s="27"/>
     </row>
-    <row r="149" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="149" spans="22:23">
       <c r="V149" s="27"/>
       <c r="W149" s="27"/>
     </row>
-    <row r="150" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="150" spans="22:23">
       <c r="V150" s="27"/>
       <c r="W150" s="27"/>
     </row>
-    <row r="151" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="151" spans="22:23">
       <c r="V151" s="27"/>
       <c r="W151" s="27"/>
     </row>
-    <row r="152" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="152" spans="22:23">
       <c r="V152" s="27"/>
       <c r="W152" s="27"/>
     </row>
-    <row r="153" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="153" spans="22:23">
       <c r="V153" s="27"/>
       <c r="W153" s="27"/>
     </row>
-    <row r="154" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="154" spans="22:23">
       <c r="V154" s="27"/>
       <c r="W154" s="27"/>
     </row>
-    <row r="155" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="155" spans="22:23">
       <c r="V155" s="27"/>
       <c r="W155" s="27"/>
     </row>
-    <row r="156" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="156" spans="22:23">
       <c r="V156" s="27"/>
       <c r="W156" s="27"/>
     </row>
-    <row r="157" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="157" spans="22:23">
       <c r="V157" s="27"/>
       <c r="W157" s="27"/>
     </row>
-    <row r="158" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="158" spans="22:23">
       <c r="V158" s="27"/>
       <c r="W158" s="27"/>
     </row>
-    <row r="159" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="159" spans="22:23">
       <c r="V159" s="27"/>
       <c r="W159" s="27"/>
     </row>
-    <row r="160" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="160" spans="22:23">
       <c r="V160" s="27"/>
       <c r="W160" s="27"/>
     </row>
-    <row r="161" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="161" spans="22:23">
       <c r="V161" s="27"/>
       <c r="W161" s="27"/>
     </row>
-    <row r="162" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="162" spans="22:23">
       <c r="V162" s="27"/>
       <c r="W162" s="27"/>
     </row>
-    <row r="163" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="163" spans="22:23">
       <c r="V163" s="27"/>
       <c r="W163" s="27"/>
     </row>
-    <row r="164" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="164" spans="22:23">
       <c r="V164" s="27"/>
       <c r="W164" s="27"/>
     </row>
-    <row r="165" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="165" spans="22:23">
       <c r="V165" s="27"/>
       <c r="W165" s="27"/>
     </row>
-    <row r="166" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="166" spans="22:23">
       <c r="V166" s="27"/>
       <c r="W166" s="27"/>
     </row>
-    <row r="167" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="167" spans="22:23">
       <c r="V167" s="27"/>
       <c r="W167" s="27"/>
     </row>
-    <row r="168" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="168" spans="22:23">
       <c r="V168" s="27"/>
       <c r="W168" s="27"/>
     </row>
-    <row r="169" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="169" spans="22:23">
       <c r="V169" s="27"/>
       <c r="W169" s="27"/>
     </row>
-    <row r="170" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="170" spans="22:23">
       <c r="V170" s="27"/>
       <c r="W170" s="27"/>
     </row>
-    <row r="171" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="171" spans="22:23">
       <c r="V171" s="27"/>
       <c r="W171" s="27"/>
     </row>
-    <row r="172" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="172" spans="22:23">
       <c r="V172" s="27"/>
       <c r="W172" s="27"/>
     </row>
-    <row r="173" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="173" spans="22:23">
       <c r="V173" s="27"/>
       <c r="W173" s="27"/>
     </row>
-    <row r="174" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="174" spans="22:23">
       <c r="V174" s="27"/>
       <c r="W174" s="27"/>
     </row>
-    <row r="175" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="175" spans="22:23">
       <c r="V175" s="27"/>
       <c r="W175" s="27"/>
     </row>
-    <row r="176" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="176" spans="22:23">
       <c r="V176" s="27"/>
       <c r="W176" s="27"/>
     </row>
-    <row r="177" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="177" spans="22:23">
       <c r="V177" s="27"/>
       <c r="W177" s="27"/>
     </row>
-    <row r="178" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="178" spans="22:23">
       <c r="V178" s="27"/>
       <c r="W178" s="27"/>
     </row>
-    <row r="179" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="179" spans="22:23">
       <c r="V179" s="27"/>
       <c r="W179" s="27"/>
     </row>
-    <row r="180" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="180" spans="22:23">
       <c r="V180" s="27"/>
       <c r="W180" s="27"/>
     </row>
-    <row r="181" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="181" spans="22:23">
       <c r="V181" s="27"/>
       <c r="W181" s="27"/>
     </row>
-    <row r="182" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="182" spans="22:23">
       <c r="V182" s="27"/>
       <c r="W182" s="27"/>
     </row>
-    <row r="183" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="183" spans="22:23">
       <c r="V183" s="27"/>
       <c r="W183" s="27"/>
     </row>
-    <row r="184" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="184" spans="22:23">
       <c r="V184" s="27"/>
       <c r="W184" s="27"/>
     </row>
-    <row r="185" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="185" spans="22:23">
       <c r="V185" s="27"/>
       <c r="W185" s="27"/>
     </row>
-    <row r="186" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="186" spans="22:23">
       <c r="V186" s="27"/>
       <c r="W186" s="27"/>
     </row>
-    <row r="187" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="187" spans="22:23">
       <c r="V187" s="27"/>
       <c r="W187" s="27"/>
     </row>
-    <row r="188" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="188" spans="22:23">
       <c r="V188" s="27"/>
       <c r="W188" s="27"/>
     </row>
-    <row r="189" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="189" spans="22:23">
       <c r="V189" s="27"/>
       <c r="W189" s="27"/>
     </row>
-    <row r="190" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="190" spans="22:23">
       <c r="V190" s="27"/>
       <c r="W190" s="27"/>
     </row>
-    <row r="191" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="191" spans="22:23">
       <c r="V191" s="27"/>
       <c r="W191" s="27"/>
     </row>
-    <row r="192" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="192" spans="22:23">
       <c r="V192" s="27"/>
       <c r="W192" s="27"/>
     </row>
-    <row r="193" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="193" spans="22:23">
       <c r="V193" s="27"/>
       <c r="W193" s="27"/>
     </row>
-    <row r="194" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="194" spans="22:23">
       <c r="V194" s="27"/>
       <c r="W194" s="27"/>
     </row>
-    <row r="195" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="195" spans="22:23">
       <c r="V195" s="27"/>
       <c r="W195" s="27"/>
     </row>
-    <row r="196" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="196" spans="22:23">
       <c r="V196" s="27"/>
       <c r="W196" s="27"/>
     </row>
-    <row r="197" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="197" spans="22:23">
       <c r="V197" s="27"/>
       <c r="W197" s="27"/>
     </row>
-    <row r="198" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="198" spans="22:23">
       <c r="V198" s="27"/>
       <c r="W198" s="27"/>
     </row>
-    <row r="199" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="199" spans="22:23">
       <c r="V199" s="27"/>
       <c r="W199" s="27"/>
     </row>
-    <row r="200" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="200" spans="22:23">
       <c r="V200" s="27"/>
       <c r="W200" s="27"/>
     </row>
-    <row r="201" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="201" spans="22:23">
       <c r="V201" s="27"/>
       <c r="W201" s="27"/>
     </row>
-    <row r="202" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="202" spans="22:23">
       <c r="V202" s="27"/>
       <c r="W202" s="27"/>
     </row>
-    <row r="203" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="203" spans="22:23">
       <c r="V203" s="27"/>
       <c r="W203" s="27"/>
     </row>
-    <row r="204" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="204" spans="22:23">
       <c r="V204" s="27"/>
       <c r="W204" s="27"/>
     </row>
-    <row r="205" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="205" spans="22:23">
       <c r="V205" s="27"/>
       <c r="W205" s="27"/>
     </row>
-    <row r="206" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="206" spans="22:23">
       <c r="V206" s="27"/>
       <c r="W206" s="27"/>
     </row>
-    <row r="207" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="207" spans="22:23">
       <c r="V207" s="27"/>
       <c r="W207" s="27"/>
     </row>
-    <row r="208" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="208" spans="22:23">
       <c r="V208" s="27"/>
       <c r="W208" s="27"/>
     </row>
-    <row r="209" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="209" spans="22:23">
       <c r="V209" s="27"/>
       <c r="W209" s="27"/>
     </row>
-    <row r="210" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="210" spans="22:23">
       <c r="V210" s="27"/>
       <c r="W210" s="27"/>
     </row>
-    <row r="211" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="211" spans="22:23">
       <c r="V211" s="27"/>
       <c r="W211" s="27"/>
     </row>
-    <row r="212" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="212" spans="22:23">
       <c r="V212" s="27"/>
       <c r="W212" s="27"/>
     </row>
-    <row r="213" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="213" spans="22:23">
       <c r="V213" s="27"/>
       <c r="W213" s="27"/>
     </row>
-    <row r="214" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="214" spans="22:23">
       <c r="V214" s="27"/>
       <c r="W214" s="27"/>
     </row>
-    <row r="215" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="215" spans="22:23">
       <c r="V215" s="27"/>
       <c r="W215" s="27"/>
     </row>
-    <row r="216" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="216" spans="22:23">
       <c r="V216" s="27"/>
       <c r="W216" s="27"/>
     </row>
-    <row r="217" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="217" spans="22:23">
       <c r="V217" s="27"/>
       <c r="W217" s="27"/>
     </row>
-    <row r="218" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="218" spans="22:23">
       <c r="V218" s="27"/>
       <c r="W218" s="27"/>
     </row>
-    <row r="219" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="219" spans="22:23">
       <c r="V219" s="27"/>
       <c r="W219" s="27"/>
     </row>
-    <row r="220" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="220" spans="22:23">
       <c r="V220" s="27"/>
       <c r="W220" s="27"/>
     </row>
-    <row r="221" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="221" spans="22:23">
       <c r="V221" s="27"/>
       <c r="W221" s="27"/>
     </row>
-    <row r="222" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="222" spans="22:23">
       <c r="V222" s="27"/>
       <c r="W222" s="27"/>
     </row>
-    <row r="223" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="223" spans="22:23">
       <c r="V223" s="27"/>
       <c r="W223" s="27"/>
     </row>
-    <row r="224" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="224" spans="22:23">
       <c r="V224" s="27"/>
       <c r="W224" s="27"/>
     </row>
-    <row r="225" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="225" spans="22:23">
       <c r="V225" s="27"/>
       <c r="W225" s="27"/>
     </row>
-    <row r="226" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="226" spans="22:23">
       <c r="V226" s="27"/>
       <c r="W226" s="27"/>
     </row>
-    <row r="227" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="227" spans="22:23">
       <c r="V227" s="27"/>
       <c r="W227" s="27"/>
     </row>
-    <row r="228" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="228" spans="22:23">
       <c r="V228" s="27"/>
       <c r="W228" s="27"/>
     </row>
-    <row r="229" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="229" spans="22:23">
       <c r="V229" s="27"/>
       <c r="W229" s="27"/>
     </row>
-    <row r="230" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="230" spans="22:23">
       <c r="V230" s="27"/>
       <c r="W230" s="27"/>
     </row>
-    <row r="231" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="231" spans="22:23">
       <c r="V231" s="27"/>
       <c r="W231" s="27"/>
     </row>
-    <row r="232" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="232" spans="22:23">
       <c r="V232" s="27"/>
       <c r="W232" s="27"/>
     </row>
-    <row r="233" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="233" spans="22:23">
       <c r="V233" s="27"/>
       <c r="W233" s="27"/>
     </row>
-    <row r="234" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="234" spans="22:23">
       <c r="V234" s="27"/>
       <c r="W234" s="27"/>
     </row>
-    <row r="235" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="235" spans="22:23">
       <c r="V235" s="27"/>
       <c r="W235" s="27"/>
     </row>
-    <row r="236" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="236" spans="22:23">
       <c r="V236" s="27"/>
       <c r="W236" s="27"/>
     </row>
-    <row r="237" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="237" spans="22:23">
       <c r="V237" s="27"/>
       <c r="W237" s="27"/>
     </row>
-    <row r="238" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="238" spans="22:23">
       <c r="V238" s="27"/>
       <c r="W238" s="27"/>
     </row>
-    <row r="239" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="239" spans="22:23">
       <c r="V239" s="27"/>
       <c r="W239" s="27"/>
     </row>
-    <row r="240" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="240" spans="22:23">
       <c r="V240" s="27"/>
       <c r="W240" s="27"/>
     </row>
-    <row r="241" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="241" spans="22:23">
       <c r="V241" s="27"/>
       <c r="W241" s="27"/>
     </row>
-    <row r="242" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="242" spans="22:23">
       <c r="V242" s="27"/>
       <c r="W242" s="27"/>
     </row>
-    <row r="243" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="243" spans="22:23">
       <c r="V243" s="27"/>
       <c r="W243" s="27"/>
     </row>
-    <row r="244" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="244" spans="22:23">
       <c r="V244" s="27"/>
       <c r="W244" s="27"/>
     </row>
-    <row r="245" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="245" spans="22:23">
       <c r="V245" s="27"/>
       <c r="W245" s="27"/>
     </row>
-    <row r="246" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="246" spans="22:23">
       <c r="V246" s="27"/>
       <c r="W246" s="27"/>
     </row>
-    <row r="247" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="247" spans="22:23">
       <c r="V247" s="27"/>
       <c r="W247" s="27"/>
     </row>
-    <row r="248" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="248" spans="22:23">
       <c r="V248" s="27"/>
       <c r="W248" s="27"/>
     </row>
-    <row r="249" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="249" spans="22:23">
       <c r="V249" s="27"/>
       <c r="W249" s="27"/>
     </row>
-    <row r="250" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="250" spans="22:23">
       <c r="V250" s="27"/>
       <c r="W250" s="27"/>
     </row>
-    <row r="251" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="251" spans="22:23">
       <c r="V251" s="27"/>
       <c r="W251" s="27"/>
     </row>
-    <row r="252" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="252" spans="22:23">
       <c r="V252" s="27"/>
       <c r="W252" s="27"/>
     </row>
-    <row r="253" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="253" spans="22:23">
       <c r="V253" s="27"/>
       <c r="W253" s="27"/>
     </row>
-    <row r="254" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="254" spans="22:23">
       <c r="V254" s="27"/>
       <c r="W254" s="27"/>
     </row>
-    <row r="255" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="255" spans="22:23">
       <c r="V255" s="27"/>
       <c r="W255" s="27"/>
     </row>
-    <row r="256" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="256" spans="22:23">
       <c r="V256" s="27"/>
       <c r="W256" s="27"/>
     </row>
-    <row r="257" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="257" spans="22:23">
       <c r="V257" s="27"/>
       <c r="W257" s="27"/>
     </row>
-    <row r="258" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="258" spans="22:23">
       <c r="V258" s="27"/>
       <c r="W258" s="27"/>
     </row>
-    <row r="259" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="259" spans="22:23">
       <c r="V259" s="27"/>
       <c r="W259" s="27"/>
     </row>
-    <row r="260" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="260" spans="22:23">
       <c r="V260" s="27"/>
       <c r="W260" s="27"/>
     </row>
-    <row r="261" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="261" spans="22:23">
       <c r="V261" s="27"/>
       <c r="W261" s="27"/>
     </row>
-    <row r="262" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="262" spans="22:23">
       <c r="V262" s="27"/>
       <c r="W262" s="27"/>
     </row>
-    <row r="263" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="263" spans="22:23">
       <c r="V263" s="27"/>
       <c r="W263" s="27"/>
     </row>
-    <row r="264" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="264" spans="22:23">
       <c r="V264" s="27"/>
       <c r="W264" s="27"/>
     </row>
-    <row r="265" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="265" spans="22:23">
       <c r="V265" s="27"/>
       <c r="W265" s="27"/>
     </row>
-    <row r="266" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="266" spans="22:23">
       <c r="V266" s="27"/>
       <c r="W266" s="27"/>
     </row>
-    <row r="267" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="267" spans="22:23">
       <c r="V267" s="27"/>
       <c r="W267" s="27"/>
     </row>
-    <row r="268" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="268" spans="22:23">
       <c r="V268" s="27"/>
       <c r="W268" s="27"/>
     </row>
-    <row r="269" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="269" spans="22:23">
       <c r="V269" s="27"/>
       <c r="W269" s="27"/>
     </row>
-    <row r="270" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="270" spans="22:23">
       <c r="V270" s="27"/>
       <c r="W270" s="27"/>
     </row>
-    <row r="271" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="271" spans="22:23">
       <c r="V271" s="27"/>
       <c r="W271" s="27"/>
     </row>
-    <row r="272" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="272" spans="22:23">
       <c r="V272" s="27"/>
       <c r="W272" s="27"/>
     </row>
-    <row r="273" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="273" spans="22:23">
       <c r="V273" s="27"/>
       <c r="W273" s="27"/>
     </row>
-    <row r="274" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="274" spans="22:23">
       <c r="V274" s="27"/>
       <c r="W274" s="27"/>
     </row>
-    <row r="275" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="275" spans="22:23">
       <c r="V275" s="27"/>
       <c r="W275" s="27"/>
     </row>
-    <row r="276" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="276" spans="22:23">
       <c r="V276" s="27"/>
       <c r="W276" s="27"/>
     </row>
-    <row r="277" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="277" spans="22:23">
       <c r="V277" s="27"/>
       <c r="W277" s="27"/>
     </row>
-    <row r="278" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="278" spans="22:23">
       <c r="V278" s="27"/>
       <c r="W278" s="27"/>
     </row>
-    <row r="279" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="279" spans="22:23">
       <c r="V279" s="27"/>
       <c r="W279" s="27"/>
     </row>
-    <row r="280" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="280" spans="22:23">
       <c r="V280" s="27"/>
       <c r="W280" s="27"/>
     </row>
-    <row r="281" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="281" spans="22:23">
       <c r="V281" s="27"/>
       <c r="W281" s="27"/>
     </row>
-    <row r="282" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="282" spans="22:23">
       <c r="V282" s="27"/>
       <c r="W282" s="27"/>
     </row>
-    <row r="283" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="283" spans="22:23">
       <c r="V283" s="27"/>
       <c r="W283" s="27"/>
     </row>
-    <row r="284" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="284" spans="22:23">
       <c r="V284" s="27"/>
       <c r="W284" s="27"/>
     </row>
-    <row r="285" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="285" spans="22:23">
       <c r="V285" s="27"/>
       <c r="W285" s="27"/>
     </row>
-    <row r="286" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="286" spans="22:23">
       <c r="V286" s="27"/>
       <c r="W286" s="27"/>
     </row>
-    <row r="287" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="287" spans="22:23">
       <c r="V287" s="27"/>
       <c r="W287" s="27"/>
     </row>
-    <row r="288" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="288" spans="22:23">
       <c r="V288" s="27"/>
       <c r="W288" s="27"/>
     </row>
-    <row r="289" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="289" spans="22:23">
       <c r="V289" s="27"/>
       <c r="W289" s="27"/>
     </row>
-    <row r="290" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="290" spans="22:23">
       <c r="V290" s="27"/>
       <c r="W290" s="27"/>
     </row>
-    <row r="291" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="291" spans="22:23">
       <c r="V291" s="27"/>
       <c r="W291" s="27"/>
     </row>
-    <row r="292" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="292" spans="22:23">
       <c r="V292" s="27"/>
       <c r="W292" s="27"/>
     </row>
-    <row r="293" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="293" spans="22:23">
       <c r="V293" s="27"/>
       <c r="W293" s="27"/>
     </row>
-    <row r="294" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="294" spans="22:23">
       <c r="V294" s="27"/>
       <c r="W294" s="27"/>
     </row>
-    <row r="295" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="295" spans="22:23">
       <c r="V295" s="27"/>
       <c r="W295" s="27"/>
     </row>
-    <row r="296" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="296" spans="22:23">
       <c r="V296" s="27"/>
       <c r="W296" s="27"/>
     </row>
-    <row r="297" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="297" spans="22:23">
       <c r="V297" s="27"/>
       <c r="W297" s="27"/>
     </row>
-    <row r="298" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="298" spans="22:23">
       <c r="V298" s="27"/>
       <c r="W298" s="27"/>
     </row>
-    <row r="299" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="299" spans="22:23">
       <c r="V299" s="27"/>
       <c r="W299" s="27"/>
     </row>
-    <row r="300" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="300" spans="22:23">
       <c r="V300" s="27"/>
       <c r="W300" s="27"/>
     </row>
-    <row r="301" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="301" spans="22:23">
       <c r="V301" s="27"/>
       <c r="W301" s="27"/>
     </row>
-    <row r="302" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="302" spans="22:23">
       <c r="V302" s="27"/>
       <c r="W302" s="27"/>
     </row>
-    <row r="303" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="303" spans="22:23">
       <c r="V303" s="27"/>
       <c r="W303" s="27"/>
     </row>
-    <row r="304" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="304" spans="22:23">
       <c r="V304" s="27"/>
       <c r="W304" s="27"/>
     </row>
-    <row r="305" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="305" spans="22:23">
       <c r="V305" s="27"/>
       <c r="W305" s="27"/>
     </row>
-    <row r="306" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="306" spans="22:23">
       <c r="V306" s="27"/>
       <c r="W306" s="27"/>
     </row>
-    <row r="307" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="307" spans="22:23">
       <c r="V307" s="27"/>
       <c r="W307" s="27"/>
     </row>
-    <row r="308" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="308" spans="22:23">
       <c r="V308" s="27"/>
       <c r="W308" s="27"/>
     </row>
-    <row r="309" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="309" spans="22:23">
       <c r="V309" s="27"/>
       <c r="W309" s="27"/>
     </row>
-    <row r="310" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="310" spans="22:23">
       <c r="V310" s="27"/>
       <c r="W310" s="27"/>
     </row>
-    <row r="311" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="311" spans="22:23">
       <c r="V311" s="27"/>
       <c r="W311" s="27"/>
     </row>
-    <row r="312" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="312" spans="22:23">
       <c r="V312" s="27"/>
       <c r="W312" s="27"/>
     </row>
-    <row r="313" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="313" spans="22:23">
       <c r="V313" s="27"/>
       <c r="W313" s="27"/>
     </row>
-    <row r="314" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="314" spans="22:23">
       <c r="V314" s="27"/>
       <c r="W314" s="27"/>
     </row>
-    <row r="315" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="315" spans="22:23">
       <c r="V315" s="27"/>
       <c r="W315" s="27"/>
     </row>
-    <row r="316" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="316" spans="22:23">
       <c r="V316" s="27"/>
       <c r="W316" s="27"/>
     </row>
-    <row r="317" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="317" spans="22:23">
       <c r="V317" s="27"/>
       <c r="W317" s="27"/>
     </row>
-    <row r="318" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="318" spans="22:23">
       <c r="V318" s="27"/>
       <c r="W318" s="27"/>
     </row>
-    <row r="319" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="319" spans="22:23">
       <c r="V319" s="27"/>
       <c r="W319" s="27"/>
     </row>
-    <row r="320" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="320" spans="22:23">
       <c r="V320" s="27"/>
       <c r="W320" s="27"/>
     </row>
-    <row r="321" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="321" spans="22:23">
       <c r="V321" s="27"/>
       <c r="W321" s="27"/>
     </row>
-    <row r="322" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="322" spans="22:23">
       <c r="V322" s="27"/>
       <c r="W322" s="27"/>
     </row>
-    <row r="323" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="323" spans="22:23">
       <c r="V323" s="27"/>
       <c r="W323" s="27"/>
     </row>
-    <row r="324" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="324" spans="22:23">
       <c r="V324" s="27"/>
       <c r="W324" s="27"/>
     </row>
-    <row r="325" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="325" spans="22:23">
       <c r="V325" s="27"/>
       <c r="W325" s="27"/>
     </row>
-    <row r="326" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="326" spans="22:23">
       <c r="V326" s="27"/>
       <c r="W326" s="27"/>
     </row>
-    <row r="327" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="327" spans="22:23">
       <c r="V327" s="27"/>
       <c r="W327" s="27"/>
     </row>
-    <row r="328" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="328" spans="22:23">
       <c r="V328" s="27"/>
       <c r="W328" s="27"/>
     </row>
-    <row r="329" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="329" spans="22:23">
       <c r="V329" s="27"/>
       <c r="W329" s="27"/>
     </row>
-    <row r="330" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="330" spans="22:23">
       <c r="V330" s="27"/>
       <c r="W330" s="27"/>
     </row>
-    <row r="331" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="331" spans="22:23">
       <c r="V331" s="27"/>
       <c r="W331" s="27"/>
     </row>
-    <row r="332" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="332" spans="22:23">
       <c r="V332" s="27"/>
       <c r="W332" s="27"/>
     </row>
-    <row r="333" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="333" spans="22:23">
       <c r="V333" s="27"/>
       <c r="W333" s="27"/>
     </row>
-    <row r="334" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="334" spans="22:23">
       <c r="V334" s="27"/>
       <c r="W334" s="27"/>
     </row>
-    <row r="335" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="335" spans="22:23">
       <c r="V335" s="27"/>
       <c r="W335" s="27"/>
     </row>
-    <row r="336" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="336" spans="22:23">
       <c r="V336" s="27"/>
       <c r="W336" s="27"/>
     </row>
-    <row r="337" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="337" spans="22:23">
       <c r="V337" s="27"/>
       <c r="W337" s="27"/>
     </row>
-    <row r="338" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="338" spans="22:23">
       <c r="V338" s="27"/>
       <c r="W338" s="27"/>
     </row>
-    <row r="339" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="339" spans="22:23">
       <c r="V339" s="27"/>
       <c r="W339" s="27"/>
     </row>
-    <row r="340" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="340" spans="22:23">
       <c r="V340" s="27"/>
       <c r="W340" s="27"/>
     </row>
-    <row r="341" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="341" spans="22:23">
       <c r="V341" s="27"/>
       <c r="W341" s="27"/>
     </row>
-    <row r="342" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="342" spans="22:23">
       <c r="V342" s="27"/>
       <c r="W342" s="27"/>
     </row>
-    <row r="343" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="343" spans="22:23">
       <c r="V343" s="27"/>
       <c r="W343" s="27"/>
     </row>
-    <row r="344" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="344" spans="22:23">
       <c r="V344" s="27"/>
       <c r="W344" s="27"/>
     </row>
-    <row r="345" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="345" spans="22:23">
       <c r="V345" s="27"/>
       <c r="W345" s="27"/>
     </row>
-    <row r="346" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="346" spans="22:23">
       <c r="V346" s="27"/>
       <c r="W346" s="27"/>
     </row>
-    <row r="347" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="347" spans="22:23">
       <c r="V347" s="27"/>
       <c r="W347" s="27"/>
     </row>
-    <row r="348" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="348" spans="22:23">
       <c r="V348" s="27"/>
       <c r="W348" s="27"/>
     </row>
-    <row r="349" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="349" spans="22:23">
       <c r="V349" s="27"/>
       <c r="W349" s="27"/>
     </row>
-    <row r="350" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="350" spans="22:23">
       <c r="V350" s="27"/>
       <c r="W350" s="27"/>
     </row>
-    <row r="351" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="351" spans="22:23">
       <c r="V351" s="27"/>
       <c r="W351" s="27"/>
     </row>
-    <row r="352" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="352" spans="22:23">
       <c r="V352" s="27"/>
       <c r="W352" s="27"/>
     </row>
-    <row r="353" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="353" spans="22:23">
       <c r="V353" s="27"/>
       <c r="W353" s="27"/>
     </row>
-    <row r="354" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="354" spans="22:23">
       <c r="V354" s="27"/>
       <c r="W354" s="27"/>
     </row>
-    <row r="355" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="355" spans="22:23">
       <c r="V355" s="27"/>
       <c r="W355" s="27"/>
     </row>
-    <row r="356" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="356" spans="22:23">
       <c r="V356" s="27"/>
       <c r="W356" s="27"/>
     </row>
-    <row r="357" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="357" spans="22:23">
       <c r="V357" s="27"/>
       <c r="W357" s="27"/>
     </row>
-    <row r="358" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="358" spans="22:23">
       <c r="V358" s="27"/>
       <c r="W358" s="27"/>
     </row>
-    <row r="359" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="359" spans="22:23">
       <c r="V359" s="27"/>
       <c r="W359" s="27"/>
     </row>
-    <row r="360" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="360" spans="22:23">
       <c r="V360" s="27"/>
       <c r="W360" s="27"/>
     </row>
-    <row r="361" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="361" spans="22:23">
       <c r="V361" s="27"/>
       <c r="W361" s="27"/>
     </row>
-    <row r="362" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="362" spans="22:23">
       <c r="V362" s="27"/>
       <c r="W362" s="27"/>
     </row>
-    <row r="363" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="363" spans="22:23">
       <c r="V363" s="27"/>
       <c r="W363" s="27"/>
     </row>
-    <row r="364" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="364" spans="22:23">
       <c r="V364" s="27"/>
       <c r="W364" s="27"/>
     </row>
-    <row r="365" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="365" spans="22:23">
       <c r="V365" s="27"/>
       <c r="W365" s="27"/>
     </row>
-    <row r="366" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="366" spans="22:23">
       <c r="V366" s="27"/>
       <c r="W366" s="27"/>
     </row>
-    <row r="367" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="367" spans="22:23">
       <c r="V367" s="27"/>
       <c r="W367" s="27"/>
     </row>
-    <row r="368" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="368" spans="22:23">
       <c r="V368" s="27"/>
       <c r="W368" s="27"/>
     </row>
-    <row r="369" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="369" spans="22:23">
       <c r="V369" s="27"/>
       <c r="W369" s="27"/>
     </row>
-    <row r="370" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="370" spans="22:23">
       <c r="V370" s="27"/>
       <c r="W370" s="27"/>
     </row>
-    <row r="371" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="371" spans="22:23">
       <c r="V371" s="27"/>
       <c r="W371" s="27"/>
     </row>
-    <row r="372" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="372" spans="22:23">
       <c r="V372" s="27"/>
       <c r="W372" s="27"/>
     </row>
-    <row r="373" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="373" spans="22:23">
       <c r="V373" s="27"/>
       <c r="W373" s="27"/>
     </row>
-    <row r="374" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="374" spans="22:23">
       <c r="V374" s="27"/>
       <c r="W374" s="27"/>
     </row>
-    <row r="375" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="375" spans="22:23">
       <c r="V375" s="27"/>
       <c r="W375" s="27"/>
     </row>
-    <row r="376" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="376" spans="22:23">
       <c r="V376" s="27"/>
       <c r="W376" s="27"/>
     </row>
-    <row r="465" spans="22:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="22:23" ht="14.25" customHeight="1">
       <c r="V465" s="27"/>
       <c r="W465" s="27"/>
     </row>
-    <row r="466" spans="22:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="22:23" ht="14.25" customHeight="1">
       <c r="V466" s="27"/>
       <c r="W466" s="27"/>
     </row>
-    <row r="467" spans="22:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="22:23" ht="14.25" customHeight="1">
       <c r="V467" s="27"/>
       <c r="W467" s="27"/>
     </row>
-    <row r="468" spans="22:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="22:23" ht="14.25" customHeight="1">
       <c r="V468" s="27"/>
       <c r="W468" s="27"/>
     </row>
-    <row r="469" spans="22:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="22:23" ht="14.25" customHeight="1">
       <c r="V469" s="27"/>
       <c r="W469" s="27"/>
     </row>
-    <row r="470" spans="22:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="22:23" ht="14.25" customHeight="1">
       <c r="V470" s="27"/>
       <c r="W470" s="27"/>
     </row>
-    <row r="471" spans="22:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="22:23" ht="14.25" customHeight="1">
       <c r="V471" s="27"/>
       <c r="W471" s="27"/>
     </row>
-    <row r="472" spans="22:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="22:23" ht="14.25" customHeight="1">
       <c r="V472" s="27"/>
       <c r="W472" s="27"/>
     </row>
-    <row r="473" spans="22:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="22:23" ht="14.25" customHeight="1">
       <c r="V473" s="27"/>
       <c r="W473" s="27"/>
     </row>
-    <row r="474" spans="22:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="22:23" ht="14.25" customHeight="1">
       <c r="V474" s="27"/>
       <c r="W474" s="27"/>
     </row>
-    <row r="475" spans="22:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="22:23" ht="14.25" customHeight="1">
       <c r="V475" s="27"/>
       <c r="W475" s="27"/>
     </row>
-    <row r="476" spans="22:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="22:23" ht="14.25" customHeight="1">
       <c r="V476" s="27"/>
       <c r="W476" s="27"/>
     </row>
-    <row r="477" spans="22:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="22:23" ht="14.25" customHeight="1">
       <c r="V477" s="27"/>
       <c r="W477" s="27"/>
     </row>
-    <row r="478" spans="22:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="22:23" ht="14.25" customHeight="1">
       <c r="V478" s="27"/>
       <c r="W478" s="27"/>
     </row>
-    <row r="479" spans="22:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="22:23" ht="14.25" customHeight="1">
       <c r="V479" s="27"/>
       <c r="W479" s="27"/>
     </row>
-    <row r="480" spans="22:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="22:23" ht="14.25" customHeight="1">
       <c r="V480" s="27"/>
       <c r="W480" s="27"/>
     </row>
-    <row r="481" spans="22:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="22:23" ht="14.25" customHeight="1">
       <c r="V481" s="27"/>
       <c r="W481" s="27"/>
     </row>
-    <row r="482" spans="22:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="22:23" ht="14.25" customHeight="1">
       <c r="V482" s="27"/>
       <c r="W482" s="27"/>
     </row>
-    <row r="483" spans="22:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="22:23" ht="14.25" customHeight="1">
       <c r="V483" s="27"/>
       <c r="W483" s="27"/>
     </row>
-    <row r="484" spans="22:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="22:23" ht="14.25" customHeight="1">
       <c r="V484" s="27"/>
       <c r="W484" s="27"/>
     </row>
-    <row r="485" spans="22:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="22:23" ht="14.25" customHeight="1">
       <c r="V485" s="27"/>
       <c r="W485" s="27"/>
     </row>
-    <row r="486" spans="22:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="22:23" ht="14.25" customHeight="1">
       <c r="V486" s="27"/>
       <c r="W486" s="27"/>
     </row>
-    <row r="487" spans="22:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="22:23" ht="14.25" customHeight="1">
       <c r="V487" s="27"/>
       <c r="W487" s="27"/>
     </row>
-    <row r="488" spans="22:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="22:23" ht="14.25" customHeight="1">
       <c r="V488" s="27"/>
       <c r="W488" s="27"/>
     </row>
-    <row r="489" spans="22:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="22:23" ht="14.25" customHeight="1">
       <c r="V489" s="27"/>
       <c r="W489" s="27"/>
     </row>
-    <row r="490" spans="22:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" spans="22:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="490" spans="22:23" ht="14.25" customHeight="1"/>
+    <row r="491" spans="22:23" ht="14.25" customHeight="1"/>
+    <row r="499" spans="22:23">
       <c r="V499" s="47"/>
       <c r="W499" s="47"/>
     </row>
-    <row r="500" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="500" spans="22:23">
       <c r="V500" s="47"/>
       <c r="W500" s="47"/>
     </row>
-    <row r="501" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="501" spans="22:23">
       <c r="V501" s="47"/>
       <c r="W501" s="47"/>
     </row>
-    <row r="502" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="502" spans="22:23">
       <c r="V502" s="47"/>
       <c r="W502" s="47"/>
     </row>
-    <row r="503" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="503" spans="22:23">
       <c r="V503" s="47"/>
       <c r="W503" s="47"/>
     </row>
-    <row r="504" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="504" spans="22:23">
       <c r="V504" s="47"/>
       <c r="W504" s="47"/>
     </row>
-    <row r="505" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="505" spans="22:23">
       <c r="V505" s="47"/>
       <c r="W505" s="47"/>
     </row>
-    <row r="506" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="506" spans="22:23">
       <c r="V506" s="47"/>
       <c r="W506" s="47"/>
     </row>
-    <row r="507" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="507" spans="22:23">
       <c r="V507" s="47"/>
       <c r="W507" s="47"/>
     </row>
-    <row r="508" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="508" spans="22:23">
       <c r="V508" s="47"/>
       <c r="W508" s="47"/>
     </row>
-    <row r="509" spans="22:23" x14ac:dyDescent="0.3">
+    <row r="509" spans="22:23">
       <c r="V509" s="47"/>
       <c r="W509" s="47"/>
     </row>
@@ -12153,14 +12153,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18624B04-0E14-4B7B-B21F-058CA024EE4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97CC9F83-EF7A-41EB-8517-1272890BC379}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
@@ -12168,7 +12166,7 @@
     <col min="6" max="6" width="2.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -12179,7 +12177,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -12193,7 +12191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -12201,7 +12199,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -12209,7 +12207,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -12217,7 +12215,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -12225,7 +12223,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>94</v>
       </c>
@@ -12233,7 +12231,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -12241,7 +12239,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -12264,7 +12262,7 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="257" max="257" width="17.42578125" customWidth="1"/>
